--- a/setup/Guide.xlsx
+++ b/setup/Guide.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiasibarburu/Desktop/Python/eco395m-Final/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiasibarburu/Desktop/Python/eco395m-Final/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFCCA0E-4C6D-154A-BEF5-F130AA6859FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96949C3A-9707-AA4C-AE23-8333412B5A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{84E50151-2F4F-6945-B24F-9857823599D8}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Date announced</t>
   </si>
   <si>
-    <t>Acquired percentage of the business</t>
-  </si>
-  <si>
     <t>Premium (one-day prior the announcement)</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Revenue for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), mln $</t>
+  </si>
+  <si>
+    <t>Acquired percentage of the business as number</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,13 +514,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -528,197 +528,197 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/setup/Guide.xlsx
+++ b/setup/Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiasibarburu/Desktop/Python/eco395m-Final/setup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Python-Class\eco395m-Final\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96949C3A-9707-AA4C-AE23-8333412B5A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D1A49-9748-4C9F-9627-E11CCBF66372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{84E50151-2F4F-6945-B24F-9857823599D8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{84E50151-2F4F-6945-B24F-9857823599D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Date closed</t>
   </si>
   <si>
-    <t>Deal size, mln $</t>
-  </si>
-  <si>
     <t>Industry of Target (1 or 2 words maximum)</t>
   </si>
   <si>
@@ -107,19 +104,22 @@
     <t>Main rationale (why the acquirer purchased the target? - (maximum 125 symbols))</t>
   </si>
   <si>
-    <t>EBITDA (calculated as operating profit plus depreciation) for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date),mln $</t>
-  </si>
-  <si>
-    <t>Implied equity value (capitalization of target company - price of one share multiplied by number of target’s shares on the moment of deal announcement), mln $</t>
-  </si>
-  <si>
-    <t>Implied Net Debt (preferrably taken from last balance sheet prior to the deal, calculated as target company's total debt minus cash), mln $</t>
-  </si>
-  <si>
-    <t>Revenue for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), mln $</t>
-  </si>
-  <si>
-    <t>Acquired percentage of the business as number</t>
+    <t>Acquired percentage of the business (as number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal size, in million dollars </t>
+  </si>
+  <si>
+    <t>Implied equity value (capitalization of target company - price of one share multiplied by number of target’s shares on the moment of deal announcement), in million dollars</t>
+  </si>
+  <si>
+    <t>EBITDA of target company (calculated as operating profit plus depreciation) for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars</t>
+  </si>
+  <si>
+    <t>Revenue of target company for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars</t>
+  </si>
+  <si>
+    <t>Implied Net Debt (preferrably taken from last balance sheet prior to the deal, calculated as target company's total debt minus cash), in million dollars</t>
   </si>
 </sst>
 </file>
@@ -503,16 +503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F061C15E-B121-DF45-B377-1CB33FFF48B1}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="161.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -545,9 +545,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -556,9 +556,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -567,9 +567,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -578,9 +578,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -589,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -611,9 +611,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -622,21 +622,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -655,9 +655,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -666,20 +666,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -688,31 +688,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>

--- a/setup/Guide.xlsx
+++ b/setup/Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Python-Class\eco395m-Final\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D1A49-9748-4C9F-9627-E11CCBF66372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B5E43-BFDD-4035-A1B0-B8DAFA543E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{84E50151-2F4F-6945-B24F-9857823599D8}"/>
   </bookViews>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F061C15E-B121-DF45-B377-1CB33FFF48B1}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>

--- a/setup/Guide.xlsx
+++ b/setup/Guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Python-Class\eco395m-Final\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79267\Desktop\eco395m-Final\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B5E43-BFDD-4035-A1B0-B8DAFA543E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06377712-6B86-4489-A71C-A59B1E302465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{84E50151-2F4F-6945-B24F-9857823599D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84E50151-2F4F-6945-B24F-9857823599D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -107,19 +107,19 @@
     <t>Acquired percentage of the business (as number)</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal size, in million dollars </t>
-  </si>
-  <si>
-    <t>Implied equity value (capitalization of target company - price of one share multiplied by number of target’s shares on the moment of deal announcement), in million dollars</t>
-  </si>
-  <si>
-    <t>EBITDA of target company (calculated as operating profit plus depreciation) for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars</t>
-  </si>
-  <si>
-    <t>Revenue of target company for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars</t>
-  </si>
-  <si>
-    <t>Implied Net Debt (preferrably taken from last balance sheet prior to the deal, calculated as target company's total debt minus cash), in million dollars</t>
+    <t>Deal size, in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
+  </si>
+  <si>
+    <t>Implied equity value (capitalization of target company - price of one share multiplied by number of target’s shares on the moment of deal announcement), in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
+  </si>
+  <si>
+    <t>Implied Net Debt (preferrably taken from last balance sheet prior to the deal, calculated as target company's total debt minus cash), in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
+  </si>
+  <si>
+    <t>Revenue of target company for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
+  </si>
+  <si>
+    <t>EBITDA of target company (calculated as operating profit plus depreciation) for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
   </si>
 </sst>
 </file>
@@ -503,16 +503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F061C15E-B121-DF45-B377-1CB33FFF48B1}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="161.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -545,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -567,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -589,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -611,9 +611,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -655,9 +655,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -666,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>

--- a/setup/Guide.xlsx
+++ b/setup/Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79267\Desktop\eco395m-Final\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06377712-6B86-4489-A71C-A59B1E302465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54505DEA-339E-4AF2-B2D2-F5393E3CA1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84E50151-2F4F-6945-B24F-9857823599D8}"/>
   </bookViews>
@@ -110,16 +110,16 @@
     <t>Deal size, in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
   </si>
   <si>
-    <t>Implied equity value (capitalization of target company - price of one share multiplied by number of target’s shares on the moment of deal announcement), in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
-  </si>
-  <si>
-    <t>Implied Net Debt (preferrably taken from last balance sheet prior to the deal, calculated as target company's total debt minus cash), in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
-  </si>
-  <si>
-    <t>Revenue of target company for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
-  </si>
-  <si>
-    <t>EBITDA of target company (calculated as operating profit plus depreciation) for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars. If the metrics is given in news in billion dollars, convert it into million</t>
+    <t>Implied equity value (capitalization of target company - price of one share multiplied by number of target’s shares on the moment of deal announcement), in million dollars (if the metrics is given in billion dollars, multiply it by 1000 to convert it into million)</t>
+  </si>
+  <si>
+    <t>Implied Net Debt (preferrably taken from last balance sheet prior to the deal, calculated as target company's total debt minus cash), in million dollars (if the metrics is given in billion dollars, multiply it by 1000 to convert it into million)</t>
+  </si>
+  <si>
+    <t>EBITDA of target company (calculated as operating profit plus depreciation) for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars (if the metrics is given in billion dollars, multiply it by 1000 to convert it into million)</t>
+  </si>
+  <si>
+    <t>Revenue of target company for the full year of the announcement date (if no information, take the revenue for the year which preceeded the announcement date), in million dollars (if the metrics is given in billion dollars, multiply it by 1000 to convert it into million)</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F061C15E-B121-DF45-B377-1CB33FFF48B1}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -646,7 +646,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
